--- a/biology/Botanique/Heinrich_Johann_Nepomuk_von_Crantz/Heinrich_Johann_Nepomuk_von_Crantz.xlsx
+++ b/biology/Botanique/Heinrich_Johann_Nepomuk_von_Crantz/Heinrich_Johann_Nepomuk_von_Crantz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Johann Nepomuk von Crantz est un botaniste et un médecin, né le 25 novembre 1722 à Roodt au Luxembourg et mort le 18 janvier 1797 à Judenburg en Autriche.
 L'acte du baptême de Henri Crantz en l'église St Nicolas à Luxembourg-Ville porte la date du 21 février 1723.  
@@ -514,11 +526,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son doctorat de médecine à Vienne en 1750. Il est l’un des premiers élèves de Gerard van Swieten (1700-1772).
 Il étudie l’obstétrique auprès d'André Levret (1703–1780) (dont il perfectionnera les forceps) et de Nicolas Puzos (1686–1753) à Paris ainsi qu’à Londres.
-Il se marie d’abord à Anna Susanne Petrasch, puis à Magdalena de Tremon[1]. Il a deux fils et une fille.
+Il se marie d’abord à Anna Susanne Petrasch, puis à Magdalena de Tremon. Il a deux fils et une fille.
 Il devient maître-assistant en obstétrique à Vienne en 1754. De 1756 à 1774, succédant à Melchior Störck, il enseigne la physiologie et la médecine à l’université de cette ville.
 Il préconise de meilleures méthodes d’hygiène pour les sages-femmes. On lui doit aussi des observations en chimie, en botanique et sur les sources d’eau minérale ; il a fait un travail de pionnier en balnéothérapie.
 </t>
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la) Commentarius de rupto in partus doloribus a foetu utero, Vienne, 1756.
 (de) Einleitung in eine wahre und gegründete Hebammenkunst, 1756.
@@ -595,18 +611,58 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Espèces étudiées (liste partielle)
-Orchidées :
+          <t>Espèces étudiées (liste partielle)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orchidées :
 Epipactis helleborine (L.) Crantz 1769 
 Epipactis palustris (L.) Crantz 1769
 Orchis amoena Crantz 1769
 Autres :
 Sorbus aria
 Hypericum maculatum
-Honneurs
-Il devient membre de la Leopoldina en 1754.
-Le genre Crantzia (Gesneriaceae) a été nommé en son honneur par Thomas Nuttall[2].
-Il y a une plaque à sa mémoire à l'université de Vienne[3].</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heinrich_Johann_Nepomuk_von_Crantz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heinrich_Johann_Nepomuk_von_Crantz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Compléments</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Honneurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il devient membre de la Leopoldina en 1754.
+Le genre Crantzia (Gesneriaceae) a été nommé en son honneur par Thomas Nuttall.
+Il y a une plaque à sa mémoire à l'université de Vienne.</t>
         </is>
       </c>
     </row>
